--- a/xlsx/威比奖_intext.xlsx
+++ b/xlsx/威比奖_intext.xlsx
@@ -29,7 +29,7 @@
     <t>网站</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_威比奖</t>
+    <t>政策_政策_维基百科_威比奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
